--- a/Cleaned_data/hardcode_data.xlsx
+++ b/Cleaned_data/hardcode_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edrick\PycharmProjects\sustainbale_econ_research\Cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D70E90D-3896-4AF9-B831-CAE829BB908D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E294721-74B0-4F0F-AAFD-1AB443B32E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="net_income_org" sheetId="4" r:id="rId10"/>
     <sheet name="fx_asset_rr_org" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="autoNoTable"/>
+  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
